--- a/1智能投递柜/0智能投递柜v2.0.3---20191127/咪咕投投v2.0.3版本需求测试用例.xlsx
+++ b/1智能投递柜/0智能投递柜v2.0.3---20191127/咪咕投投v2.0.3版本需求测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21648" windowHeight="9120"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -882,10 +882,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -926,6 +926,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -933,7 +947,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,7 +991,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -955,7 +999,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,7 +1007,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,53 +1021,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1031,15 +1030,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1054,8 +1045,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,7 +1063,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,7 +1084,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,19 +1156,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1222,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,139 +1264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,30 +1294,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1332,17 +1308,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,8 +1350,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,6 +1361,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,10 +1398,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1410,133 +1410,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:IV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -8978,7 +8978,7 @@
       <c r="IU31" s="1"/>
       <c r="IV31" s="1"/>
     </row>
-    <row r="32" ht="50" customHeight="1" spans="1:256">
+    <row r="32" ht="90" spans="1:256">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -9256,7 +9256,7 @@
       <c r="IU32" s="1"/>
       <c r="IV32" s="1"/>
     </row>
-    <row r="33" ht="25" customHeight="1" spans="1:256">
+    <row r="33" ht="90" spans="1:256">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -9534,7 +9534,7 @@
       <c r="IU33" s="1"/>
       <c r="IV33" s="1"/>
     </row>
-    <row r="34" ht="30" customHeight="1" spans="1:256">
+    <row r="34" ht="90" spans="1:256">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -10350,7 +10350,7 @@
       <c r="IU36" s="1"/>
       <c r="IV36" s="1"/>
     </row>
-    <row r="37" ht="30" customHeight="1" spans="1:256">
+    <row r="37" ht="90" spans="1:256">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
